--- a/filecorpus.xlsx
+++ b/filecorpus.xlsx
@@ -1,25 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F51CA4-409F-43F8-B517-800C6339F326}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Memory Usage</t>
+  </si>
+  <si>
+    <t>Original Size(KB)</t>
+  </si>
+  <si>
+    <t>Compressed Size(KB)</t>
+  </si>
+  <si>
+    <t>CPU Time(Ms)</t>
+  </si>
+  <si>
+    <t>bib</t>
+  </si>
+  <si>
+    <t>book1</t>
+  </si>
+  <si>
+    <t>book2</t>
+  </si>
+  <si>
+    <t>dickens</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>mozilla</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>nci</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>obj1</t>
+  </si>
+  <si>
+    <t>obj2</t>
+  </si>
+  <si>
+    <t>ooffice</t>
+  </si>
+  <si>
+    <t>osdb</t>
+  </si>
+  <si>
+    <t>paper1</t>
+  </si>
+  <si>
+    <t>paper2</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>progc</t>
+  </si>
+  <si>
+    <t>progl</t>
+  </si>
+  <si>
+    <t>progp</t>
+  </si>
+  <si>
+    <t>reymont</t>
+  </si>
+  <si>
+    <t>samba</t>
+  </si>
+  <si>
+    <t>sao</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>webster</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>x-ray</t>
+  </si>
+  <si>
+    <t>Compression ratio</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +442,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v>3.1142857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>751</v>
+      </c>
+      <c r="C3">
+        <v>307</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/C3</f>
+        <v>2.446254071661238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>597</v>
+      </c>
+      <c r="C4">
+        <v>202</v>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/C4</f>
+        <v>2.9554455445544554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>9954</v>
+      </c>
+      <c r="C5">
+        <v>3781</v>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/C5</f>
+        <v>2.6326368685532926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/C6</f>
+        <v>1.4925373134328359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>50020</v>
+      </c>
+      <c r="C7">
+        <v>18642</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D27" si="0">B7/C7</f>
+        <v>2.6831884990880805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>9737</v>
+      </c>
+      <c r="C8">
+        <v>3590</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7122562674094706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>32768</v>
+      </c>
+      <c r="C9">
+        <v>3126</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>10.482405630198336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>369</v>
+      </c>
+      <c r="C10">
+        <v>142</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5985915492957745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9090909090909092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>242</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0249999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>6008</v>
+      </c>
+      <c r="C13">
+        <v>3025</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9861157024793388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>9850</v>
+      </c>
+      <c r="C14">
+        <v>3609</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7292878913826546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.736842105263158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>502</v>
+      </c>
+      <c r="C17">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9642857142857135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7857142857142856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4545454545454541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>6472</v>
+      </c>
+      <c r="C21">
+        <v>1818</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5599559955995601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>21100</v>
+      </c>
+      <c r="C22">
+        <v>5324</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9631855747558227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>7082</v>
+      </c>
+      <c r="C23">
+        <v>5207</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3600921835990014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>92</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8421052631578947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>40488</v>
+      </c>
+      <c r="C25">
+        <v>11928</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3943661971830985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>5220</v>
+      </c>
+      <c r="C26">
+        <v>672</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7678571428571432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>8276</v>
+      </c>
+      <c r="C27">
+        <v>5904</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4017615176151761</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>